--- a/42. Screamin'_Blue_Jays_Tour.xlsx
+++ b/42. Screamin'_Blue_Jays_Tour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6345E2-6103-4EA1-9654-94CADFE09C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CA3D9C-13AA-4857-A6D2-0573BC733924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{88AD8198-900A-4F00-9AF3-32CC4382A13C}"/>
   </bookViews>
